--- a/Pin Assignments.xlsx
+++ b/Pin Assignments.xlsx
@@ -1,25 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9d343cf959b842/Documents/UT/ME 392Q Mechatronics/Final Project/bball_robot/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC10489FA91E64BC5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBF30C98-E089-41DC-87B6-7586F9C2D19B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>Pin Map Location</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ml/sekp171/sekp171.pdf?ts=1645066239153</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,6 +100,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>96625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>39036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9002692-6281-21F1-B836-DDB490116559}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="381000"/>
+          <a:ext cx="9850225" cy="6706536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +413,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A41" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>A39+1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pin Assignments.xlsx
+++ b/Pin Assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9d343cf959b842/Documents/UT/ME 392Q Mechatronics/Final Project/bball_robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC10489FA91E64BC5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBF30C98-E089-41DC-87B6-7586F9C2D19B}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_F25DC773A252ABDACC10489FA91E64BC5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DF6FEED-8A6B-46E1-9C15-A41DF21A0780}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Pin</t>
   </si>
@@ -48,6 +48,75 @@
   </si>
   <si>
     <t>https://www.ti.com/lit/ml/sekp171/sekp171.pdf?ts=1645066239153</t>
+  </si>
+  <si>
+    <t>BMP2</t>
+  </si>
+  <si>
+    <t>BMP4</t>
+  </si>
+  <si>
+    <t>nSLPL</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>PWMR</t>
+  </si>
+  <si>
+    <t>PWML</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>BMP0</t>
+  </si>
+  <si>
+    <t>BMP1</t>
+  </si>
+  <si>
+    <t>BMP3</t>
+  </si>
+  <si>
+    <t>BMP5</t>
+  </si>
+  <si>
+    <t>DIRL</t>
+  </si>
+  <si>
+    <t>DIRR</t>
+  </si>
+  <si>
+    <t>nSLPR</t>
+  </si>
+  <si>
+    <t>ELB</t>
+  </si>
+  <si>
+    <t>ERB</t>
+  </si>
+  <si>
+    <t>Tachometer</t>
   </si>
 </sst>
 </file>
@@ -63,12 +132,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,8 +182,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,6 +253,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,13 +524,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -432,6 +541,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
@@ -439,6 +551,12 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -473,6 +591,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -485,6 +609,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -503,18 +633,36 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -528,154 +676,226 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>A39+1</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pin Assignments.xlsx
+++ b/Pin Assignments.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9d343cf959b842/Documents/UT/ME 392Q Mechatronics/Final Project/bball_robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_F25DC773A252ABDACC10489FA91E64BC5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DF6FEED-8A6B-46E1-9C15-A41DF21A0780}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="11_F25DC773A252ABDACC10489FA91E64BC5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4605DE86-F19F-4F8C-AFE1-A0CD7985549E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Steph Bot" sheetId="1" r:id="rId1"/>
+    <sheet name="Shaq Bot" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="27">
   <si>
     <t>Pin</t>
   </si>
@@ -243,6 +244,55 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3200400" y="381000"/>
+          <a:ext cx="9850225" cy="6706536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>87100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>48561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6C610A-10A3-405A-93DD-C99256666546}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038475" y="581025"/>
           <a:ext cx="9850225" cy="6706536"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -524,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,4 +952,384 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853AEB72-36AC-4AEC-AC1C-161255D27AE9}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A41" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>A39+1</f>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Pin Assignments.xlsx
+++ b/Pin Assignments.xlsx
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection sqref="A1:K41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +959,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Pin Assignments.xlsx
+++ b/Pin Assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9d343cf959b842/Documents/UT/ME 392Q Mechatronics/Final Project/bball_robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="11_F25DC773A252ABDACC10489FA91E64BC5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4605DE86-F19F-4F8C-AFE1-A0CD7985549E}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="11_F25DC773A252ABDACC10489FA91E64BC5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B6F0713-8560-4BF2-8770-A47053E4770A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
   <si>
     <t>Pin</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>Tachometer</t>
+  </si>
+  <si>
+    <t>IR Left</t>
+  </si>
+  <si>
+    <t>IR Middle</t>
+  </si>
+  <si>
+    <t>IR Right</t>
+  </si>
+  <si>
+    <t>Sensor</t>
   </si>
 </sst>
 </file>
@@ -133,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +182,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -183,13 +201,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,7 +978,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,17 +1016,35 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A41" si="0">A3+1</f>
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/Pin Assignments.xlsx
+++ b/Pin Assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9d343cf959b842/Documents/UT/ME 392Q Mechatronics/Final Project/bball_robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_F25DC773A252ABDACC10489FA91E64BC5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B6F0713-8560-4BF2-8770-A47053E4770A}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="11_F25DC773A252ABDACC10489FA91E64BC5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B21290B4-E41D-4D38-9F43-3A4B4BEB8058}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
   <si>
     <t>Pin</t>
   </si>
@@ -322,10 +322,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -978,7 +974,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,17 +1138,35 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/Pin Assignments.xlsx
+++ b/Pin Assignments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9d343cf959b842/Documents/UT/ME 392Q Mechatronics/Final Project/bball_robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="11_F25DC773A252ABDACC10489FA91E64BC5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B21290B4-E41D-4D38-9F43-3A4B4BEB8058}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="11_F25DC773A252ABDACC10489FA91E64BC5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3F9A593-440C-466D-9ED9-0F13F8B8B0A7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="32">
   <si>
     <t>Pin</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED </t>
   </si>
 </sst>
 </file>
@@ -322,6 +325,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -974,7 +981,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,6 +1091,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">

--- a/Pin Assignments.xlsx
+++ b/Pin Assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9d343cf959b842/Documents/UT/ME 392Q Mechatronics/Final Project/bball_robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="11_F25DC773A252ABDACC10489FA91E64BC5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3F9A593-440C-466D-9ED9-0F13F8B8B0A7}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="11_F25DC773A252ABDACC10489FA91E64BC5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06C7707E-EAE0-4669-89B2-46BDF9BC88E5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
   <si>
     <t>Pin</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve">LED </t>
+  </si>
+  <si>
+    <t>DO NOT USE</t>
   </si>
 </sst>
 </file>
@@ -204,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -212,6 +215,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853AEB72-36AC-4AEC-AC1C-161255D27AE9}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,6 +1148,12 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1149,7 +1161,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>30</v>
@@ -1160,12 +1172,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1390,6 +1400,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B17:C17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Pin Assignments.xlsx
+++ b/Pin Assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9d343cf959b842/Documents/UT/ME 392Q Mechatronics/Final Project/bball_robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="11_F25DC773A252ABDACC10489FA91E64BC5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06C7707E-EAE0-4669-89B2-46BDF9BC88E5}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="11_F25DC773A252ABDACC10489FA91E64BC5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC85FFEB-FC90-4B3F-A212-F149BDD1211F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="34">
   <si>
     <t>Pin</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>DO NOT USE</t>
+  </si>
+  <si>
+    <t>Ultra</t>
   </si>
 </sst>
 </file>
@@ -207,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -218,6 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,18 +649,21 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A41" si="0">A3+1</f>
         <v>3</v>
       </c>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -699,6 +706,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -747,24 +757,46 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -939,11 +971,23 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -977,6 +1021,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B17:C17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -986,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853AEB72-36AC-4AEC-AC1C-161255D27AE9}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,36 +1072,21 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A41" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1097,9 +1129,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1362,11 +1392,23 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">

--- a/Pin Assignments.xlsx
+++ b/Pin Assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9d343cf959b842/Documents/UT/ME 392Q Mechatronics/Final Project/bball_robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="11_F25DC773A252ABDACC10489FA91E64BC5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC85FFEB-FC90-4B3F-A212-F149BDD1211F}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="11_F25DC773A252ABDACC10489FA91E64BC5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5295FD26-D20C-4F04-BC14-3CA876FB3384}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steph Bot" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="35">
   <si>
     <t>Pin</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Ultra</t>
+  </si>
+  <si>
+    <t>stepper</t>
   </si>
 </sst>
 </file>
@@ -210,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -221,7 +224,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,26 +651,47 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A41" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1033,7 +1056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853AEB72-36AC-4AEC-AC1C-161255D27AE9}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1072,21 +1095,18 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A41" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1129,7 +1149,6 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
